--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB628A-B1F6-49A9-9447-FFE1D774B2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B66615-4E93-4630-94D8-C4009092DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11606" yWindow="1768" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,28 +273,28 @@
     <t>06.10.2022</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общая сумма графы "Итого" </t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -302,8 +302,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -369,8 +369,8 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -651,24 +651,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -712,13 +713,13 @@
         <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2176,9 +2177,9 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="7">
+        <v>82</v>
+      </c>
+      <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
         <v>89188.95</v>
       </c>
@@ -2194,9 +2195,9 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="1">
+        <v>83</v>
+      </c>
+      <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2212,7 +2213,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2230,7 +2231,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>
@@ -2244,6 +2245,32 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B66615-4E93-4630-94D8-C4009092DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BCF3D4-5D96-4AE7-A95A-7FE16AF65C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -763,6 +763,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -803,13 +804,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A39" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -843,13 +845,14 @@
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -883,13 +886,14 @@
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -923,13 +927,14 @@
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -963,13 +968,14 @@
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -1003,13 +1009,14 @@
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -1043,13 +1050,14 @@
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -1083,13 +1091,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1123,13 +1132,14 @@
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1163,13 +1173,14 @@
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1193,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J38" si="5">I14*H14</f>
+        <f t="shared" ref="J14:J38" si="6">I14*H14</f>
         <v>30</v>
       </c>
       <c r="K14" s="7">
@@ -1203,13 +1214,14 @@
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1233,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
@@ -1243,13 +1255,14 @@
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1273,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
@@ -1283,13 +1296,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1313,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
@@ -1323,13 +1337,14 @@
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1353,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
@@ -1363,13 +1378,14 @@
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1393,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
@@ -1403,13 +1419,14 @@
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1433,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
@@ -1443,13 +1460,14 @@
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1473,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
@@ -1483,13 +1501,14 @@
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1513,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
@@ -1523,13 +1542,14 @@
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1553,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
@@ -1563,13 +1583,14 @@
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1593,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
@@ -1603,13 +1624,14 @@
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1633,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
@@ -1643,13 +1665,14 @@
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1673,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
@@ -1683,13 +1706,14 @@
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1713,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
@@ -1723,13 +1747,14 @@
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1753,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
@@ -1763,13 +1788,14 @@
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1793,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
@@ -1803,13 +1829,14 @@
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1833,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
@@ -1843,13 +1870,14 @@
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1873,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
@@ -1883,13 +1911,14 @@
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1913,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
@@ -1923,13 +1952,14 @@
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1953,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
@@ -1963,13 +1993,14 @@
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1993,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
@@ -2003,17 +2034,18 @@
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="6">40.7*0.5</f>
+        <f t="shared" ref="D35:D38" si="7">40.7*0.5</f>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2033,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
@@ -2043,17 +2075,18 @@
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2073,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
@@ -2083,17 +2116,18 @@
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2113,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
@@ -2123,17 +2157,18 @@
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
@@ -2153,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">
@@ -2162,7 +2197,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BCF3D4-5D96-4AE7-A95A-7FE16AF65C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF6E7A-B7EB-47C8-A03F-89E370FB0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -692,34 +692,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -741,10 +741,10 @@
         <v>2849</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -782,10 +782,10 @@
         <v>2828.65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -823,10 +823,10 @@
         <v>2808.3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -864,10 +864,10 @@
         <v>2787.9500000000003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -905,10 +905,10 @@
         <v>2767.6000000000004</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -946,10 +946,10 @@
         <v>2747.25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -987,10 +987,10 @@
         <v>2726.9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -1028,10 +1028,10 @@
         <v>2706.55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1069,10 +1069,10 @@
         <v>2686.2000000000003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1110,10 +1110,10 @@
         <v>2665.8500000000004</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1151,10 +1151,10 @@
         <v>2645.5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1192,10 +1192,10 @@
         <v>2625.15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1233,10 +1233,10 @@
         <v>2604.8000000000002</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1274,10 +1274,10 @@
         <v>2584.4500000000003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1">
         <v>5</v>
@@ -1300,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1315,10 +1315,10 @@
         <v>2564.1000000000004</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1">
         <v>6</v>
@@ -1341,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1356,10 +1356,10 @@
         <v>2543.75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1">
         <v>7</v>
@@ -1382,7 +1382,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1397,10 +1397,10 @@
         <v>2523.4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="1">
         <v>8</v>
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1438,10 +1438,10 @@
         <v>2503.0500000000002</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1">
         <v>9</v>
@@ -1464,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1479,10 +1479,10 @@
         <v>2482.7000000000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="1">
         <v>10</v>
@@ -1505,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1520,10 +1520,10 @@
         <v>2462.3500000000004</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1">
         <v>11</v>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1561,10 +1561,10 @@
         <v>2442</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1">
         <v>12</v>
@@ -1587,7 +1587,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1602,10 +1602,10 @@
         <v>2421.65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="1">
         <v>13</v>
@@ -1628,7 +1628,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1643,10 +1643,10 @@
         <v>2401.3000000000002</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1">
         <v>14</v>
@@ -1669,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1684,10 +1684,10 @@
         <v>2380.9500000000003</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="1">
         <v>15</v>
@@ -1710,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1725,10 +1725,10 @@
         <v>2360.6000000000004</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="1">
         <v>16</v>
@@ -1751,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1766,10 +1766,10 @@
         <v>2340.25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="1">
         <v>17</v>
@@ -1792,7 +1792,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1807,10 +1807,10 @@
         <v>2319.9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="1">
         <v>18</v>
@@ -1833,7 +1833,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1848,10 +1848,10 @@
         <v>2299.5500000000002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1">
         <v>19</v>
@@ -1874,7 +1874,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1889,10 +1889,10 @@
         <v>2279.2000000000003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="1">
         <v>20</v>
@@ -1915,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1930,10 +1930,10 @@
         <v>2258.8500000000004</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="1">
         <v>21</v>
@@ -1956,7 +1956,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1971,10 +1971,10 @@
         <v>2238.5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1">
         <v>22</v>
@@ -1997,7 +1997,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2012,10 +2012,10 @@
         <v>2218.15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1">
         <v>23</v>
@@ -2038,7 +2038,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2053,10 +2053,10 @@
         <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="1">
         <v>24</v>
@@ -2079,7 +2079,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2094,10 +2094,10 @@
         <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="1">
         <v>25</v>
@@ -2120,7 +2120,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2135,10 +2135,10 @@
         <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1">
         <v>26</v>
@@ -2161,7 +2161,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2176,10 +2176,10 @@
         <v>1068.375</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="1">
         <v>27</v>
@@ -2212,7 +2212,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2230,7 +2230,7 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2248,7 +2248,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2266,7 +2266,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF6E7A-B7EB-47C8-A03F-89E370FB0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C8EAF-BD14-4C02-A278-26C383A953F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -159,115 +159,7 @@
     <t>Срок оплаты</t>
   </si>
   <si>
-    <t>09.09.2022</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>01.09.2022</t>
-  </si>
-  <si>
-    <t>02.09.2022</t>
-  </si>
-  <si>
-    <t>03.09.2022</t>
-  </si>
-  <si>
-    <t>04.09.2022</t>
-  </si>
-  <si>
-    <t>05.09.2022</t>
-  </si>
-  <si>
-    <t>06.09.2022</t>
-  </si>
-  <si>
-    <t>07.09.2022</t>
-  </si>
-  <si>
-    <t>08.09.2022</t>
-  </si>
-  <si>
-    <t>10.09.2022</t>
-  </si>
-  <si>
-    <t>12.09.2022</t>
-  </si>
-  <si>
-    <t>14.09.2022</t>
-  </si>
-  <si>
-    <t>16.09.2022</t>
-  </si>
-  <si>
-    <t>18.09.2022</t>
-  </si>
-  <si>
-    <t>20.09.2022</t>
-  </si>
-  <si>
-    <t>22.09.2022</t>
-  </si>
-  <si>
-    <t>24.09.2022</t>
-  </si>
-  <si>
-    <t>26.09.2022</t>
-  </si>
-  <si>
-    <t>28.09.2022</t>
-  </si>
-  <si>
-    <t>30.09.2022</t>
-  </si>
-  <si>
-    <t>11.09.2022</t>
-  </si>
-  <si>
-    <t>13.09.2022</t>
-  </si>
-  <si>
-    <t>15.09.2022</t>
-  </si>
-  <si>
-    <t>17.09.2022</t>
-  </si>
-  <si>
-    <t>19.09.2022</t>
-  </si>
-  <si>
-    <t>23.09.2022</t>
-  </si>
-  <si>
-    <t>25.09.2022</t>
-  </si>
-  <si>
-    <t>27.09.2022</t>
-  </si>
-  <si>
-    <t>29.09.2022</t>
-  </si>
-  <si>
-    <t>21.09.2022</t>
-  </si>
-  <si>
-    <t>01.10.2022</t>
-  </si>
-  <si>
-    <t>02.10.2022</t>
-  </si>
-  <si>
-    <t>03.10.2022</t>
-  </si>
-  <si>
-    <t>04.10.2022</t>
-  </si>
-  <si>
-    <t>05.10.2022</t>
-  </si>
-  <si>
-    <t>06.10.2022</t>
   </si>
   <si>
     <t>Просрочка, дней</t>
@@ -354,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,6 +263,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -654,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -692,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -707,19 +600,19 @@
         <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -740,13 +633,14 @@
         <f>D3*C3</f>
         <v>2849</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
+      <c r="F3" s="10">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="10">
+        <v>44805</v>
       </c>
       <c r="H3" s="1">
+        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -781,37 +675,39 @@
         <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>2828.65</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
+      <c r="F4" s="10">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44806</v>
       </c>
       <c r="H4" s="1">
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J11" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="4">SUM(E4,J4)</f>
         <v>2828.65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A39" si="4">A4+1</f>
+        <f t="shared" ref="A5:A39" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -822,37 +718,39 @@
         <f t="shared" si="1"/>
         <v>2808.3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F37" si="7">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2808.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -863,37 +761,39 @@
         <f t="shared" si="1"/>
         <v>2787.9500000000003</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
+      <c r="F6" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2787.9500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -904,37 +804,39 @@
         <f t="shared" si="1"/>
         <v>2767.6000000000004</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
+      <c r="F7" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2767.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -945,37 +847,39 @@
         <f t="shared" si="1"/>
         <v>2747.25</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
+      <c r="F8" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2747.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -986,37 +890,39 @@
         <f t="shared" si="1"/>
         <v>2726.9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
+      <c r="F9" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2726.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -1027,37 +933,39 @@
         <f t="shared" si="1"/>
         <v>2706.55</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
+      <c r="F10" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2706.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -1068,37 +976,39 @@
         <f t="shared" si="1"/>
         <v>2686.2000000000003</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
+      <c r="F11" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2686.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1109,13 +1019,15 @@
         <f t="shared" si="1"/>
         <v>2665.8500000000004</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
+      <c r="F12" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44814</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1126,20 +1038,20 @@
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2675.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1150,13 +1062,15 @@
         <f t="shared" si="1"/>
         <v>2645.5</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
+      <c r="F13" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44815</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1167,20 +1081,20 @@
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2665.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1191,37 +1105,39 @@
         <f t="shared" si="1"/>
         <v>2625.15</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
+      <c r="F14" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44816</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J38" si="6">I14*H14</f>
+        <f t="shared" ref="J14:J38" si="8">I14*H14</f>
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2655.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1232,37 +1148,39 @@
         <f t="shared" si="1"/>
         <v>2604.8000000000002</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>63</v>
+      <c r="F15" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44817</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2644.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1273,37 +1191,39 @@
         <f t="shared" si="1"/>
         <v>2584.4500000000003</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>53</v>
+      <c r="F16" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44818</v>
       </c>
       <c r="H16" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2634.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1314,37 +1234,39 @@
         <f t="shared" si="1"/>
         <v>2564.1000000000004</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>64</v>
+      <c r="F17" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44819</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2624.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1355,37 +1277,39 @@
         <f t="shared" si="1"/>
         <v>2543.75</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
+      <c r="F18" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="10">
+        <v>44820</v>
       </c>
       <c r="H18" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2613.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1396,37 +1320,39 @@
         <f t="shared" si="1"/>
         <v>2523.4</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
+      <c r="F19" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="10">
+        <v>44821</v>
       </c>
       <c r="H19" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1437,37 +1363,39 @@
         <f t="shared" si="1"/>
         <v>2503.0500000000002</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
+      <c r="F20" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="10">
+        <v>44822</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2593.0500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1478,37 +1406,39 @@
         <f t="shared" si="1"/>
         <v>2482.7000000000003</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>66</v>
+      <c r="F21" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="10">
+        <v>44823</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2582.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1519,37 +1449,39 @@
         <f t="shared" si="1"/>
         <v>2462.3500000000004</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>56</v>
+      <c r="F22" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="10">
+        <v>44824</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2572.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1560,37 +1492,39 @@
         <f t="shared" si="1"/>
         <v>2442</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>71</v>
+      <c r="F23" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="10">
+        <v>44825</v>
       </c>
       <c r="H23" s="1">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1601,37 +1535,39 @@
         <f t="shared" si="1"/>
         <v>2421.65</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
+      <c r="F24" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="10">
+        <v>44826</v>
       </c>
       <c r="H24" s="1">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2551.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1642,37 +1578,39 @@
         <f t="shared" si="1"/>
         <v>2401.3000000000002</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>67</v>
+      <c r="F25" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="10">
+        <v>44827</v>
       </c>
       <c r="H25" s="1">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2541.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1683,37 +1621,39 @@
         <f t="shared" si="1"/>
         <v>2380.9500000000003</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>58</v>
+      <c r="F26" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="10">
+        <v>44828</v>
       </c>
       <c r="H26" s="1">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2530.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1724,37 +1664,39 @@
         <f t="shared" si="1"/>
         <v>2360.6000000000004</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>68</v>
+      <c r="F27" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="10">
+        <v>44829</v>
       </c>
       <c r="H27" s="1">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2520.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1765,37 +1707,39 @@
         <f t="shared" si="1"/>
         <v>2340.25</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>59</v>
+      <c r="F28" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="10">
+        <v>44830</v>
       </c>
       <c r="H28" s="1">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2510.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1806,37 +1750,39 @@
         <f t="shared" si="1"/>
         <v>2319.9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>69</v>
+      <c r="F29" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="10">
+        <v>44831</v>
       </c>
       <c r="H29" s="1">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2499.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1847,37 +1793,39 @@
         <f t="shared" si="1"/>
         <v>2299.5500000000002</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>60</v>
+      <c r="F30" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="10">
+        <v>44832</v>
       </c>
       <c r="H30" s="1">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2489.5500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1888,37 +1836,39 @@
         <f t="shared" si="1"/>
         <v>2279.2000000000003</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>70</v>
+      <c r="F31" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="10">
+        <v>44833</v>
       </c>
       <c r="H31" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2479.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1929,37 +1879,39 @@
         <f t="shared" si="1"/>
         <v>2258.8500000000004</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>61</v>
+      <c r="F32" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="10">
+        <v>44834</v>
       </c>
       <c r="H32" s="1">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2468.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1970,37 +1922,39 @@
         <f t="shared" si="1"/>
         <v>2238.5</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>72</v>
+      <c r="F33" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="10">
+        <v>44835</v>
       </c>
       <c r="H33" s="1">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2458.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -2011,188 +1965,198 @@
         <f t="shared" si="1"/>
         <v>2218.15</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>73</v>
+      <c r="F34" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="10">
+        <v>44836</v>
       </c>
       <c r="H34" s="1">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2448.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="7">40.7*0.5</f>
+        <f t="shared" ref="D35:D38" si="9">40.7*0.5</f>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>1098.9000000000001</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>74</v>
+      <c r="F35" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="10">
+        <v>44837</v>
       </c>
       <c r="H35" s="1">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
         <v>1088.7250000000001</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>75</v>
+      <c r="F36" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="10">
+        <v>44838</v>
       </c>
       <c r="H36" s="1">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>1078.5500000000002</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>76</v>
+      <c r="F37" s="10">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="10">
+        <v>44839</v>
       </c>
       <c r="H37" s="1">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>1068.375</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>77</v>
+      <c r="F38" s="10">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="10">
+        <v>44840</v>
       </c>
       <c r="H38" s="1">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.375</v>
       </c>
     </row>
@@ -2203,7 +2167,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2212,7 +2176,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2230,7 +2194,7 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2248,7 +2212,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2266,7 +2230,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C8EAF-BD14-4C02-A278-26C383A953F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E36B38-1E9D-4167-B4C7-02B03779FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>44</v>
@@ -2176,7 +2176,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2194,7 +2194,7 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2212,7 +2212,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2230,7 +2230,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E36B38-1E9D-4167-B4C7-02B03779FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D784A-96CE-402A-A523-E7F6CA671A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>44</v>
@@ -2176,7 +2176,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2230,7 +2230,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D784A-96CE-402A-A523-E7F6CA671A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510EBE2-2A0E-45C4-995A-31C82C514CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -680,6 +680,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="10">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -687,6 +688,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -723,6 +725,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="10">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -730,6 +733,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I37" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -766,6 +770,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="10">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -773,6 +778,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -809,6 +815,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="10">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -816,6 +823,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -852,6 +860,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="10">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -859,6 +868,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -895,6 +905,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="10">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -902,6 +913,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -938,6 +950,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="10">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -945,6 +958,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -981,6 +995,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="10">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -988,6 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1024,6 +1040,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="10">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1031,6 +1048,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1067,6 +1085,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="10">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1074,6 +1093,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1110,6 +1130,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="10">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1117,10 +1138,11 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J38" si="8">I14*H14</f>
+        <f t="shared" ref="J14:J38" si="10">I14*H14</f>
         <v>30</v>
       </c>
       <c r="K14" s="7">
@@ -1153,6 +1175,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="10">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1160,10 +1183,11 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
@@ -1196,6 +1220,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="10">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1203,10 +1228,11 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
@@ -1239,6 +1265,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="10">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1246,10 +1273,11 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
@@ -1282,6 +1310,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="10">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1289,10 +1318,11 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
@@ -1325,6 +1355,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="10">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1332,10 +1363,11 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
@@ -1368,6 +1400,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="10">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1375,10 +1408,11 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
@@ -1411,6 +1445,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="10">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1418,10 +1453,11 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
@@ -1454,6 +1490,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="10">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1461,10 +1498,11 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
@@ -1497,6 +1535,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="10">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1504,10 +1543,11 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
@@ -1540,6 +1580,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="10">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1547,10 +1588,11 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
@@ -1583,6 +1625,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="10">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1590,10 +1633,11 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
@@ -1626,6 +1670,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="10">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1633,10 +1678,11 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
@@ -1669,6 +1715,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="10">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1676,10 +1723,11 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
@@ -1712,6 +1760,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="10">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1719,10 +1768,11 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
@@ -1755,6 +1805,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="10">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1762,10 +1813,11 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
@@ -1798,6 +1850,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="10">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1805,10 +1858,11 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
@@ -1841,6 +1895,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="10">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1848,10 +1903,11 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
@@ -1884,6 +1940,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="10">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1891,10 +1948,11 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
@@ -1927,6 +1985,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="10">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1934,10 +1993,11 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
@@ -1970,6 +2030,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="10">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1977,10 +2038,11 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
@@ -2001,7 +2063,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="9">40.7*0.5</f>
+        <f t="shared" ref="D35:D38" si="11">40.7*0.5</f>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2013,6 +2075,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="10">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2020,10 +2083,11 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
@@ -2044,7 +2108,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2056,6 +2120,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="10">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2063,10 +2128,11 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
@@ -2087,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2099,6 +2165,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="10">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2106,10 +2173,11 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
@@ -2130,7 +2198,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
@@ -2142,6 +2210,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="10">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2152,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510EBE2-2A0E-45C4-995A-31C82C514CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150AB66-50D1-48D4-96AC-8CDF9B4252CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,12 +156,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Дата оплаты, день</t>
+  </si>
+  <si>
+    <t>Срок оплаты, день</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -557,8 +557,8 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -597,22 +597,22 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>37*1.1</f>
+        <f>$A$1*1.1</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E3" s="1">
@@ -668,11 +668,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">37*1.1</f>
+        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>2828.65</v>
       </c>
       <c r="F4" s="10">
@@ -684,7 +684,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -692,32 +692,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J11" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="4">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
         <v>2828.65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A39" si="5">A4+1</f>
+        <f t="shared" ref="A5:A39" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2808.3</v>
       </c>
       <c r="F5" s="10">
@@ -729,40 +729,40 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I37" si="9">$I$3</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I37" si="9">$I$3</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2808.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2787.9500000000003</v>
       </c>
       <c r="F6" s="10">
@@ -774,40 +774,40 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2787.9500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2767.6000000000004</v>
       </c>
       <c r="F7" s="10">
@@ -819,40 +819,40 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2767.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2747.25</v>
       </c>
       <c r="F8" s="10">
@@ -864,40 +864,40 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2747.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2726.9</v>
       </c>
       <c r="F9" s="10">
@@ -909,40 +909,40 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2726.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2706.55</v>
       </c>
       <c r="F10" s="10">
@@ -954,40 +954,40 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2706.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2686.2000000000003</v>
       </c>
       <c r="F11" s="10">
@@ -999,40 +999,40 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2686.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2665.8500000000004</v>
       </c>
       <c r="F12" s="10">
@@ -1044,7 +1044,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1056,28 +1056,28 @@
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2675.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2645.5</v>
       </c>
       <c r="F13" s="10">
@@ -1089,7 +1089,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1101,28 +1101,28 @@
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2665.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2625.15</v>
       </c>
       <c r="F14" s="10">
@@ -1134,7 +1134,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1146,28 +1146,28 @@
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2655.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2604.8000000000002</v>
       </c>
       <c r="F15" s="10">
@@ -1179,7 +1179,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1191,28 +1191,28 @@
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2644.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2584.4500000000003</v>
       </c>
       <c r="F16" s="10">
@@ -1224,7 +1224,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1236,28 +1236,28 @@
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2634.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2564.1000000000004</v>
       </c>
       <c r="F17" s="10">
@@ -1269,7 +1269,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1281,28 +1281,28 @@
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2624.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2543.75</v>
       </c>
       <c r="F18" s="10">
@@ -1314,7 +1314,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1326,28 +1326,28 @@
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2613.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2523.4</v>
       </c>
       <c r="F19" s="10">
@@ -1359,7 +1359,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1371,28 +1371,28 @@
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2503.0500000000002</v>
       </c>
       <c r="F20" s="10">
@@ -1404,7 +1404,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1416,28 +1416,28 @@
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2593.0500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2482.7000000000003</v>
       </c>
       <c r="F21" s="10">
@@ -1449,7 +1449,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1461,28 +1461,28 @@
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2582.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2462.3500000000004</v>
       </c>
       <c r="F22" s="10">
@@ -1494,7 +1494,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1506,28 +1506,28 @@
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2572.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2442</v>
       </c>
       <c r="F23" s="10">
@@ -1539,7 +1539,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1551,28 +1551,28 @@
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2421.65</v>
       </c>
       <c r="F24" s="10">
@@ -1584,7 +1584,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1596,28 +1596,28 @@
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2551.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2401.3000000000002</v>
       </c>
       <c r="F25" s="10">
@@ -1629,7 +1629,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1641,28 +1641,28 @@
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2541.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2380.9500000000003</v>
       </c>
       <c r="F26" s="10">
@@ -1674,7 +1674,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1686,28 +1686,28 @@
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2530.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2360.6000000000004</v>
       </c>
       <c r="F27" s="10">
@@ -1719,7 +1719,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1731,28 +1731,28 @@
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2520.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2340.25</v>
       </c>
       <c r="F28" s="10">
@@ -1764,7 +1764,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1776,28 +1776,28 @@
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2510.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2319.9</v>
       </c>
       <c r="F29" s="10">
@@ -1809,7 +1809,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1821,28 +1821,28 @@
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2499.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2299.5500000000002</v>
       </c>
       <c r="F30" s="10">
@@ -1854,7 +1854,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1866,28 +1866,28 @@
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2489.5500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2279.2000000000003</v>
       </c>
       <c r="F31" s="10">
@@ -1899,7 +1899,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1911,28 +1911,28 @@
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2479.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2258.8500000000004</v>
       </c>
       <c r="F32" s="10">
@@ -1944,7 +1944,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1956,28 +1956,28 @@
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2468.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2238.5</v>
       </c>
       <c r="F33" s="10">
@@ -1989,7 +1989,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2001,28 +2001,28 @@
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2458.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2218.15</v>
       </c>
       <c r="F34" s="10">
@@ -2034,7 +2034,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2046,28 +2046,28 @@
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2448.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="11">40.7*0.5</f>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="10">
@@ -2079,7 +2079,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2091,28 +2091,28 @@
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="10">
@@ -2124,7 +2124,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2136,28 +2136,28 @@
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="10">
@@ -2169,7 +2169,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2181,28 +2181,28 @@
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1068.375</v>
       </c>
       <c r="F38" s="10">
@@ -2214,7 +2214,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2225,7 +2225,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1338.375</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2263,7 +2263,7 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2281,7 +2281,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2299,7 +2299,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150AB66-50D1-48D4-96AC-8CDF9B4252CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0394B03-4481-4A77-A685-CAFDBF7528E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,6 +156,12 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -181,12 +187,6 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
-    <t>Срок оплаты, день</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -597,22 +597,22 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2263,7 +2263,7 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2281,7 +2281,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2299,7 +2299,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0394B03-4481-4A77-A685-CAFDBF7528E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84200FA2-87CD-4424-93ED-38D6CDC756CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -684,7 +684,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f>IF(G4&lt;=F4, $H$3, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -692,28 +692,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J11" si="1">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="2">SUM(E4,J4)</f>
         <v>2828.65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A39" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" ref="D5:D38" si="5">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
@@ -721,44 +721,44 @@
         <v>2808.3</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F37" si="7">$F$3</f>
+        <f t="shared" ref="F5:F37" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" ref="H5:H38" si="8">IF(G5&lt;=F5, $H$3, G5-F5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I37" si="9">$I$3</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I37" si="9">$I$3</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2808.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E6" s="1">
@@ -766,44 +766,44 @@
         <v>2787.9500000000003</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2787.9500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E7" s="1">
@@ -811,44 +811,44 @@
         <v>2767.6000000000004</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2767.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E8" s="1">
@@ -856,44 +856,44 @@
         <v>2747.25</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2747.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E9" s="1">
@@ -901,44 +901,44 @@
         <v>2726.9</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2726.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E10" s="1">
@@ -946,44 +946,44 @@
         <v>2706.55</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2706.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E11" s="1">
@@ -991,44 +991,44 @@
         <v>2686.2000000000003</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2686.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E12" s="1">
@@ -1036,15 +1036,15 @@
         <v>2665.8500000000004</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1056,24 +1056,24 @@
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2675.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E13" s="1">
@@ -1081,15 +1081,15 @@
         <v>2645.5</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1101,24 +1101,24 @@
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2665.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E14" s="1">
@@ -1126,15 +1126,15 @@
         <v>2625.15</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1146,24 +1146,24 @@
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2655.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E15" s="1">
@@ -1171,15 +1171,15 @@
         <v>2604.8000000000002</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1191,24 +1191,24 @@
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2644.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="1">
@@ -1216,15 +1216,15 @@
         <v>2584.4500000000003</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1236,24 +1236,24 @@
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2634.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E17" s="1">
@@ -1261,15 +1261,15 @@
         <v>2564.1000000000004</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1281,24 +1281,24 @@
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2624.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E18" s="1">
@@ -1306,15 +1306,15 @@
         <v>2543.75</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1326,24 +1326,24 @@
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2613.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E19" s="1">
@@ -1351,15 +1351,15 @@
         <v>2523.4</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1371,24 +1371,24 @@
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E20" s="1">
@@ -1396,15 +1396,15 @@
         <v>2503.0500000000002</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1416,24 +1416,24 @@
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2593.0500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E21" s="1">
@@ -1441,15 +1441,15 @@
         <v>2482.7000000000003</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1461,24 +1461,24 @@
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2582.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E22" s="1">
@@ -1486,15 +1486,15 @@
         <v>2462.3500000000004</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1506,24 +1506,24 @@
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2572.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E23" s="1">
@@ -1531,15 +1531,15 @@
         <v>2442</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1551,24 +1551,24 @@
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E24" s="1">
@@ -1576,15 +1576,15 @@
         <v>2421.65</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1596,24 +1596,24 @@
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2551.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E25" s="1">
@@ -1621,15 +1621,15 @@
         <v>2401.3000000000002</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1641,24 +1641,24 @@
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2541.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E26" s="1">
@@ -1666,15 +1666,15 @@
         <v>2380.9500000000003</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1686,24 +1686,24 @@
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2530.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E27" s="1">
@@ -1711,15 +1711,15 @@
         <v>2360.6000000000004</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1731,24 +1731,24 @@
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2520.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
@@ -1756,15 +1756,15 @@
         <v>2340.25</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1776,24 +1776,24 @@
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2510.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E29" s="1">
@@ -1801,15 +1801,15 @@
         <v>2319.9</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1821,24 +1821,24 @@
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2499.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E30" s="1">
@@ -1846,15 +1846,15 @@
         <v>2299.5500000000002</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1866,24 +1866,24 @@
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2489.5500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
@@ -1891,15 +1891,15 @@
         <v>2279.2000000000003</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1911,24 +1911,24 @@
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2479.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E32" s="1">
@@ -1936,15 +1936,15 @@
         <v>2258.8500000000004</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1956,24 +1956,24 @@
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2468.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
@@ -1981,15 +1981,15 @@
         <v>2238.5</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2001,24 +2001,24 @@
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2458.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E34" s="1">
@@ -2026,15 +2026,15 @@
         <v>2218.15</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2046,24 +2046,24 @@
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2448.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2071,15 +2071,15 @@
         <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2091,24 +2091,24 @@
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2116,15 +2116,15 @@
         <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2136,24 +2136,24 @@
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2161,15 +2161,15 @@
         <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2181,24 +2181,24 @@
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
@@ -2210,11 +2210,11 @@
         <v>44813</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2225,7 +2225,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1338.375</v>
       </c>
     </row>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84200FA2-87CD-4424-93ED-38D6CDC756CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8003C1-3517-44EB-9479-F33DD05ECE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Мифтахов</t>
   </si>
   <si>
-    <t>Ма́тижева</t>
-  </si>
-  <si>
     <t>Лучин</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Гагаркин</t>
   </si>
   <si>
-    <t>Башкиро́ва</t>
-  </si>
-  <si>
     <t>Байрамшин</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Башкирова</t>
+  </si>
+  <si>
+    <t>Матижева</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -594,25 +594,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -976,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1516,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1561,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1606,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1651,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1696,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1741,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1786,7 +1786,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1831,7 +1831,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1876,7 +1876,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1921,7 +1921,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1966,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2011,7 +2011,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2056,7 +2056,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2101,7 +2101,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2146,7 +2146,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2245,7 +2245,7 @@
     <row r="40" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
@@ -2263,7 +2263,7 @@
     <row r="41" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2281,7 +2281,7 @@
     <row r="42" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2299,7 +2299,7 @@
     <row r="43" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8003C1-3517-44EB-9479-F33DD05ECE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE6382-BE8E-4687-9FD5-0A3CA1F929B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*C3</f>
+        <f>$D3*$C3</f>
         <v>2849</v>
       </c>
       <c r="F3" s="10">
@@ -640,18 +640,18 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>0</f>
+        <f>IF($G3&lt;=$F3,0,$G3-$F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>$I3*$H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>SUM(E3,J3)</f>
+        <f>$E3 + $J3</f>
         <v>2849</v>
       </c>
     </row>
@@ -664,15 +664,15 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <f>C3-0.5</f>
+        <f>$C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f>IF($A4 / 4 &lt;=  8,$D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">$D4*$C4</f>
         <v>2828.65</v>
       </c>
       <c r="F4" s="10">
@@ -680,11 +680,11 @@
         <v>44813</v>
       </c>
       <c r="G4" s="10">
-        <f>G3+1</f>
+        <f>$G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(G4&lt;=F4, $H$3, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF($G4&lt;=$F4,0,$G4-$F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -692,28 +692,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J11" si="1">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">$I4*$H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="2">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="3">$E4 + $J4</f>
         <v>2828.65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">$C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="5">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" ref="D5:D38" si="6">IF($A5 / 4 &lt;=  8,$D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
@@ -721,15 +721,15 @@
         <v>2808.3</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F37" si="6">$F$3</f>
+        <f t="shared" ref="F5:F37" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">$G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H38" si="8">IF(G5&lt;=F5, $H$3, G5-F5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -737,28 +737,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2808.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E6" s="1">
@@ -766,15 +766,15 @@
         <v>2787.9500000000003</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -782,28 +782,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2787.9500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E7" s="1">
@@ -811,15 +811,15 @@
         <v>2767.6000000000004</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -827,28 +827,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2767.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E8" s="1">
@@ -856,15 +856,15 @@
         <v>2747.25</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -872,28 +872,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2747.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E9" s="1">
@@ -901,15 +901,15 @@
         <v>2726.9</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -917,28 +917,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2726.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E10" s="1">
@@ -946,15 +946,15 @@
         <v>2706.55</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -962,28 +962,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2706.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E11" s="1">
@@ -991,15 +991,15 @@
         <v>2686.2000000000003</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1007,28 +1007,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2686.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E12" s="1">
@@ -1036,15 +1036,15 @@
         <v>2665.8500000000004</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1052,28 +1052,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f>I12*H12</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2675.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E13" s="1">
@@ -1081,15 +1081,15 @@
         <v>2645.5</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1097,28 +1097,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f>I13*H13</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2665.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E14" s="1">
@@ -1126,15 +1126,15 @@
         <v>2625.15</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1142,28 +1142,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J38" si="10">I14*H14</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2655.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E15" s="1">
@@ -1171,15 +1171,15 @@
         <v>2604.8000000000002</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1187,28 +1187,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2644.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="1">
@@ -1216,15 +1216,15 @@
         <v>2584.4500000000003</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1232,28 +1232,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2634.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E17" s="1">
@@ -1261,15 +1261,15 @@
         <v>2564.1000000000004</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1277,28 +1277,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2624.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E18" s="1">
@@ -1306,15 +1306,15 @@
         <v>2543.75</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1322,28 +1322,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2613.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E19" s="1">
@@ -1351,15 +1351,15 @@
         <v>2523.4</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1367,28 +1367,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E20" s="1">
@@ -1396,15 +1396,15 @@
         <v>2503.0500000000002</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1412,28 +1412,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2593.0500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E21" s="1">
@@ -1441,15 +1441,15 @@
         <v>2482.7000000000003</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1457,28 +1457,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2582.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E22" s="1">
@@ -1486,15 +1486,15 @@
         <v>2462.3500000000004</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2572.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E23" s="1">
@@ -1531,15 +1531,15 @@
         <v>2442</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1547,28 +1547,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E24" s="1">
@@ -1576,15 +1576,15 @@
         <v>2421.65</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1592,28 +1592,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2551.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E25" s="1">
@@ -1621,15 +1621,15 @@
         <v>2401.3000000000002</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1637,28 +1637,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2541.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E26" s="1">
@@ -1666,15 +1666,15 @@
         <v>2380.9500000000003</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1682,28 +1682,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2530.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E27" s="1">
@@ -1711,15 +1711,15 @@
         <v>2360.6000000000004</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2520.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
@@ -1756,15 +1756,15 @@
         <v>2340.25</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1772,28 +1772,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2510.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E29" s="1">
@@ -1801,15 +1801,15 @@
         <v>2319.9</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1817,28 +1817,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2499.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E30" s="1">
@@ -1846,15 +1846,15 @@
         <v>2299.5500000000002</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1862,28 +1862,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2489.5500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
@@ -1891,15 +1891,15 @@
         <v>2279.2000000000003</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1907,28 +1907,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2479.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E32" s="1">
@@ -1936,15 +1936,15 @@
         <v>2258.8500000000004</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2468.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
@@ -1981,15 +1981,15 @@
         <v>2238.5</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1997,28 +1997,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2458.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E34" s="1">
@@ -2026,15 +2026,15 @@
         <v>2218.15</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2042,28 +2042,28 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2448.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2071,15 +2071,15 @@
         <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2087,28 +2087,28 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2116,15 +2116,15 @@
         <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2132,28 +2132,28 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2161,15 +2161,15 @@
         <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
@@ -2210,22 +2210,22 @@
         <v>44813</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1338.375</v>
       </c>
     </row>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE6382-BE8E-4687-9FD5-0A3CA1F929B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB307473-C959-49F0-97FB-E2E70F27BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -644,6 +644,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
+        <f>10</f>
         <v>10</v>
       </c>
       <c r="J3" s="1">
@@ -2248,7 +2249,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="6">
-        <f>SUM(K3:K38)</f>
+        <f>SUM($K$3:$K$38)</f>
         <v>89188.95</v>
       </c>
       <c r="D40" s="1"/>
@@ -2266,7 +2267,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="7">
-        <f>AVERAGE(C3:C38)</f>
+        <f>AVERAGE($C$3:$C$38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="1"/>
@@ -2284,7 +2285,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3:H38)</f>
+        <f>MAX($H$3:$H$38)</f>
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -2302,7 +2303,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="6">
-        <f>MAX(K3:K38)</f>
+        <f>MAX($K3:$K38)</f>
         <v>2849</v>
       </c>
       <c r="D43" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB307473-C959-49F0-97FB-E2E70F27BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97ACB4-7EA3-4A1D-908A-06F775E17027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -626,11 +626,11 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>IF(A3 / 4 &lt;=  8, $A$1 * 1.1, $A$1 * 1.1/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f>$D3*$C3</f>
+        <f>D3*C3</f>
         <v>2849</v>
       </c>
       <c r="F3" s="10">
@@ -640,7 +640,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF($G3&lt;=$F3,0,$G3-$F3)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -665,15 +665,15 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <f>$C3-0.5</f>
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>IF($A4 / 4 &lt;=  8,$D$3, $D$3/2)</f>
+        <f t="shared" ref="D4:D38" si="0">IF(A4 / 4 &lt;=  8, $A$1 * 1.1, $A$1 * 1.1/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">$D4*$C4</f>
+        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>2828.65</v>
       </c>
       <c r="F4" s="10">
@@ -681,11 +681,11 @@
         <v>44813</v>
       </c>
       <c r="G4" s="10">
-        <f>$G3+1</f>
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF($G4&lt;=$F4,0,$G4-$F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -693,32 +693,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">$I4*$H4</f>
+        <f t="shared" ref="J4:J38" si="3">$I4*$H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="3">$E4 + $J4</f>
+        <f t="shared" ref="K4:K38" si="4">$E4 + $J4</f>
         <v>2828.65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">$C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">IF($A5 / 4 &lt;=  8,$D$3, $D$3/2)</f>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2808.3</v>
       </c>
       <c r="F5" s="10">
@@ -726,11 +726,11 @@
         <v>44813</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G38" si="8">$G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -738,32 +738,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2808.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2787.9500000000003</v>
       </c>
       <c r="F6" s="10">
@@ -775,7 +775,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -783,32 +783,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2787.9500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2767.6000000000004</v>
       </c>
       <c r="F7" s="10">
@@ -820,7 +820,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -828,32 +828,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2767.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2747.25</v>
       </c>
       <c r="F8" s="10">
@@ -865,7 +865,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -873,32 +873,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2747.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2726.9</v>
       </c>
       <c r="F9" s="10">
@@ -910,7 +910,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -918,32 +918,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2726.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2706.55</v>
       </c>
       <c r="F10" s="10">
@@ -955,7 +955,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -963,32 +963,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2706.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2686.2000000000003</v>
       </c>
       <c r="F11" s="10">
@@ -1000,7 +1000,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1008,32 +1008,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2686.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2665.8500000000004</v>
       </c>
       <c r="F12" s="10">
@@ -1045,7 +1045,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1053,32 +1053,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2675.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2645.5</v>
       </c>
       <c r="F13" s="10">
@@ -1090,7 +1090,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1098,32 +1098,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2665.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2625.15</v>
       </c>
       <c r="F14" s="10">
@@ -1135,7 +1135,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1143,32 +1143,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2655.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2604.8000000000002</v>
       </c>
       <c r="F15" s="10">
@@ -1180,7 +1180,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1188,32 +1188,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2644.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2584.4500000000003</v>
       </c>
       <c r="F16" s="10">
@@ -1225,7 +1225,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1233,32 +1233,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2634.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2564.1000000000004</v>
       </c>
       <c r="F17" s="10">
@@ -1270,7 +1270,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1278,32 +1278,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2624.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2543.75</v>
       </c>
       <c r="F18" s="10">
@@ -1315,7 +1315,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1323,32 +1323,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2613.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2523.4</v>
       </c>
       <c r="F19" s="10">
@@ -1360,7 +1360,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1368,32 +1368,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2503.0500000000002</v>
       </c>
       <c r="F20" s="10">
@@ -1405,7 +1405,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1413,32 +1413,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2593.0500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2482.7000000000003</v>
       </c>
       <c r="F21" s="10">
@@ -1450,7 +1450,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1458,32 +1458,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2582.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2462.3500000000004</v>
       </c>
       <c r="F22" s="10">
@@ -1495,7 +1495,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1503,32 +1503,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2572.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2442</v>
       </c>
       <c r="F23" s="10">
@@ -1540,7 +1540,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1548,32 +1548,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2421.65</v>
       </c>
       <c r="F24" s="10">
@@ -1585,7 +1585,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1593,32 +1593,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2551.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2401.3000000000002</v>
       </c>
       <c r="F25" s="10">
@@ -1630,7 +1630,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1638,32 +1638,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2541.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2380.9500000000003</v>
       </c>
       <c r="F26" s="10">
@@ -1675,7 +1675,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1683,32 +1683,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2530.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2360.6000000000004</v>
       </c>
       <c r="F27" s="10">
@@ -1720,7 +1720,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1728,32 +1728,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2520.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2340.25</v>
       </c>
       <c r="F28" s="10">
@@ -1765,7 +1765,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1773,32 +1773,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2510.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2319.9</v>
       </c>
       <c r="F29" s="10">
@@ -1810,7 +1810,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1818,32 +1818,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2499.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2299.5500000000002</v>
       </c>
       <c r="F30" s="10">
@@ -1855,7 +1855,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1863,32 +1863,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2489.5500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2279.2000000000003</v>
       </c>
       <c r="F31" s="10">
@@ -1900,7 +1900,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1908,32 +1908,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2479.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2258.8500000000004</v>
       </c>
       <c r="F32" s="10">
@@ -1945,7 +1945,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1953,32 +1953,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2468.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2238.5</v>
       </c>
       <c r="F33" s="10">
@@ -1990,7 +1990,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1998,32 +1998,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2458.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2218.15</v>
       </c>
       <c r="F34" s="10">
@@ -2035,7 +2035,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2043,32 +2043,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2448.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="10">
@@ -2080,7 +2080,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2088,32 +2088,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="10">
@@ -2125,7 +2125,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2133,32 +2133,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="10">
@@ -2170,7 +2170,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2178,32 +2178,32 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1068.375</v>
       </c>
       <c r="F38" s="10">
@@ -2215,18 +2215,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1338.375</v>
       </c>
     </row>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97ACB4-7EA3-4A1D-908A-06F775E17027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53553163-9CCA-4A49-8E13-B7A047832C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3 / 4 &lt;=  8, $A$1 * 1.1, $A$1 * 1.1/2)</f>
+        <f>$A$1 * 1.1</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E3" s="1">
@@ -644,11 +644,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>10</f>
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>$I3*$H3</f>
+        <f>I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
@@ -669,11 +668,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(A4 / 4 &lt;=  8, $A$1 * 1.1, $A$1 * 1.1/2)</f>
+        <f>IF(A4 / 4 &lt;=  8, $D$3, $A$1/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>2828.65</v>
       </c>
       <c r="F4" s="10">
@@ -685,40 +684,40 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>$I$3</f>
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">$I4*$H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="4">$E4 + $J4</f>
+        <f t="shared" ref="K4:K38" si="3">$E4 + $J4</f>
         <v>2828.65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">IF(A5 / 4 &lt;=  8, $D$3, $A$1/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2808.3</v>
       </c>
       <c r="F5" s="10">
@@ -730,40 +729,40 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I37" si="9">$I$3</f>
+        <f t="shared" ref="I5:I39" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2808.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2787.9500000000003</v>
       </c>
       <c r="F6" s="10">
@@ -775,7 +774,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -783,32 +782,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2787.9500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2767.6000000000004</v>
       </c>
       <c r="F7" s="10">
@@ -820,7 +819,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -828,32 +827,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2767.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2747.25</v>
       </c>
       <c r="F8" s="10">
@@ -865,7 +864,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -873,32 +872,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2747.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2726.9</v>
       </c>
       <c r="F9" s="10">
@@ -910,7 +909,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -918,32 +917,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2726.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2706.55</v>
       </c>
       <c r="F10" s="10">
@@ -955,7 +954,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -963,32 +962,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2706.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2686.2000000000003</v>
       </c>
       <c r="F11" s="10">
@@ -1000,7 +999,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1008,32 +1007,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2686.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2665.8500000000004</v>
       </c>
       <c r="F12" s="10">
@@ -1045,7 +1044,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1053,32 +1052,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2675.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2645.5</v>
       </c>
       <c r="F13" s="10">
@@ -1090,7 +1089,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1098,32 +1097,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2665.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2625.15</v>
       </c>
       <c r="F14" s="10">
@@ -1135,7 +1134,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1143,32 +1142,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2655.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2604.8000000000002</v>
       </c>
       <c r="F15" s="10">
@@ -1180,7 +1179,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1188,32 +1187,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2644.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2584.4500000000003</v>
       </c>
       <c r="F16" s="10">
@@ -1225,7 +1224,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1233,32 +1232,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2634.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2564.1000000000004</v>
       </c>
       <c r="F17" s="10">
@@ -1270,7 +1269,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1278,32 +1277,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2624.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2543.75</v>
       </c>
       <c r="F18" s="10">
@@ -1315,7 +1314,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1323,32 +1322,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2613.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2523.4</v>
       </c>
       <c r="F19" s="10">
@@ -1360,7 +1359,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1368,32 +1367,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2503.0500000000002</v>
       </c>
       <c r="F20" s="10">
@@ -1405,7 +1404,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1413,32 +1412,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2593.0500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2482.7000000000003</v>
       </c>
       <c r="F21" s="10">
@@ -1450,7 +1449,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1458,32 +1457,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2582.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2462.3500000000004</v>
       </c>
       <c r="F22" s="10">
@@ -1495,7 +1494,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1503,32 +1502,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2572.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2442</v>
       </c>
       <c r="F23" s="10">
@@ -1540,7 +1539,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1548,32 +1547,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2421.65</v>
       </c>
       <c r="F24" s="10">
@@ -1585,7 +1584,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1593,32 +1592,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2551.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2401.3000000000002</v>
       </c>
       <c r="F25" s="10">
@@ -1630,7 +1629,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1638,32 +1637,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2541.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2380.9500000000003</v>
       </c>
       <c r="F26" s="10">
@@ -1675,7 +1674,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1683,32 +1682,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2530.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2360.6000000000004</v>
       </c>
       <c r="F27" s="10">
@@ -1720,7 +1719,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1728,32 +1727,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2520.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2340.25</v>
       </c>
       <c r="F28" s="10">
@@ -1765,7 +1764,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1773,32 +1772,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2510.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2319.9</v>
       </c>
       <c r="F29" s="10">
@@ -1810,7 +1809,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1818,32 +1817,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2499.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2299.5500000000002</v>
       </c>
       <c r="F30" s="10">
@@ -1855,7 +1854,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1863,32 +1862,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2489.5500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2279.2000000000003</v>
       </c>
       <c r="F31" s="10">
@@ -1900,7 +1899,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1908,32 +1907,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2479.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2258.8500000000004</v>
       </c>
       <c r="F32" s="10">
@@ -1945,7 +1944,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1953,32 +1952,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2468.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2238.5</v>
       </c>
       <c r="F33" s="10">
@@ -1990,7 +1989,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1998,32 +1997,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2458.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.700000000000003</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2218.15</v>
       </c>
       <c r="F34" s="10">
@@ -2035,7 +2034,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2043,33 +2042,33 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2448.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="6"/>
+        <v>18.5</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="0"/>
+        <v>999</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="7"/>
@@ -2080,7 +2079,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2088,33 +2087,33 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="4"/>
-        <v>1338.9</v>
+        <f t="shared" si="3"/>
+        <v>1239</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="6"/>
+        <v>18.5</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>1088.7250000000001</v>
+        <f t="shared" si="0"/>
+        <v>989.75</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="7"/>
@@ -2125,7 +2124,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2133,33 +2132,33 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="4"/>
-        <v>1338.7250000000001</v>
+        <f t="shared" si="3"/>
+        <v>1239.75</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="6"/>
+        <v>18.5</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>1078.5500000000002</v>
+        <f t="shared" si="0"/>
+        <v>980.5</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="7"/>
@@ -2170,7 +2169,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2178,33 +2177,33 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="4"/>
-        <v>1338.5500000000002</v>
+        <f t="shared" si="3"/>
+        <v>1240.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="6"/>
+        <v>18.5</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>1068.375</v>
+        <f t="shared" si="0"/>
+        <v>971.25</v>
       </c>
       <c r="F38" s="10">
         <f>$F$3</f>
@@ -2215,19 +2214,20 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="4"/>
-        <v>1338.375</v>
+        <f t="shared" si="3"/>
+        <v>1241.25</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C40" s="6">
         <f>SUM($K$3:$K$38)</f>
-        <v>89188.95</v>
+        <v>88794.9</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53553163-9CCA-4A49-8E13-B7A047832C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3BD5E-A84C-416D-977D-D8A4D58AD2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1 * 1.1</f>
+        <f>$A$1*1.1</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E3" s="1">
@@ -2249,7 +2249,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="6">
-        <f>SUM($K$3:$K$38)</f>
+        <f>SUM(K3:K38)</f>
         <v>88794.9</v>
       </c>
       <c r="D40" s="1"/>
@@ -2267,7 +2267,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="7">
-        <f>AVERAGE($C$3:$C$38)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="1"/>
@@ -2285,7 +2285,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX($H$3:$H$38)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -2303,7 +2303,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="6">
-        <f>MAX($K3:$K38)</f>
+        <f>MAX(K3:K38)</f>
         <v>2849</v>
       </c>
       <c r="D43" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3BD5E-A84C-416D-977D-D8A4D58AD2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11112BDF-BB80-4343-B0CF-F137EC2F82B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(A4 / 4 &lt;=  8, $D$3, $A$1/2)</f>
+        <f>IF(A4/4&lt;= 8, $D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">
@@ -713,7 +713,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">IF(A5 / 4 &lt;=  8, $D$3, $A$1/2)</f>
+        <f t="shared" ref="D5:D37" si="6">IF(A5/4&lt;= 8, $D$3, $D$3/2)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="6"/>
-        <v>18.5</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="7"/>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="3"/>
-        <v>1239</v>
+        <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2109,11 +2109,11 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>18.5</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>989.75</v>
+        <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="7"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" si="3"/>
-        <v>1239.75</v>
+        <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>18.5</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>980.5</v>
+        <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="7"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>1240.5</v>
+        <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2198,12 +2198,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
-        <v>18.5</v>
+        <f>IF(A38/4&lt;= 8, $D$3, $D$3/2)</f>
+        <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>971.25</v>
+        <v>1068.375</v>
       </c>
       <c r="F38" s="10">
         <f>$F$3</f>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="K38" s="9">
         <f t="shared" si="3"/>
-        <v>1241.25</v>
+        <v>1338.375</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
-        <v>88794.9</v>
+        <v>89188.95</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11112BDF-BB80-4343-B0CF-F137EC2F82B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0BC3E-20FC-4C7F-9B0B-25F6D550F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(A4/4&lt;= 8, $D$3, $D$3/2)</f>
+        <f>$A$1*1.1</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0BC3E-20FC-4C7F-9B0B-25F6D550F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A84E678-4014-4D61-BC67-15721F07AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D37" si="6">IF(A5/4&lt;= 8, $D$3, $D$3/2)</f>
+        <f t="shared" ref="D5:D34" si="6">$A$1*1.1</f>
         <v>40.700000000000003</v>
       </c>
       <c r="E5" s="1">
@@ -2063,12 +2063,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <f>$A$1/2</f>
+        <v>18.5</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>1098.9000000000001</v>
+        <v>999</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="7"/>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="3"/>
-        <v>1338.9</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2108,12 +2108,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <f t="shared" ref="D36:D38" si="10">$A$1/2</f>
+        <v>18.5</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1088.7250000000001</v>
+        <v>989.75</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="7"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" si="3"/>
-        <v>1338.7250000000001</v>
+        <v>1239.75</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2153,12 +2153,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="10"/>
+        <v>18.5</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1078.5500000000002</v>
+        <v>980.5</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="7"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>1338.5500000000002</v>
+        <v>1240.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2198,12 +2198,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>IF(A38/4&lt;= 8, $D$3, $D$3/2)</f>
-        <v>20.350000000000001</v>
+        <f t="shared" si="10"/>
+        <v>18.5</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>1068.375</v>
+        <v>971.25</v>
       </c>
       <c r="F38" s="10">
         <f>$F$3</f>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="K38" s="9">
         <f t="shared" si="3"/>
-        <v>1338.375</v>
+        <v>1241.25</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
-        <v>89188.95</v>
+        <v>88794.9</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A84E678-4014-4D61-BC67-15721F07AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C18CB4-F413-46FD-B87B-FE2B8C9BB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2063,12 +2063,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1/2</f>
-        <v>18.5</v>
+        <f>$A$1*1.1/2</f>
+        <v>20.350000000000001</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>1098.9000000000001</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="7"/>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="3"/>
-        <v>1239</v>
+        <v>1338.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2108,12 +2108,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$A$1/2</f>
-        <v>18.5</v>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <v>20.350000000000001</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>989.75</v>
+        <v>1088.7250000000001</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="7"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" si="3"/>
-        <v>1239.75</v>
+        <v>1338.7250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>18.5</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>980.5</v>
+        <v>1078.5500000000002</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="7"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>1240.5</v>
+        <v>1338.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2199,11 +2199,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>18.5</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>971.25</v>
+        <v>1068.375</v>
       </c>
       <c r="F38" s="10">
         <f>$F$3</f>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="K38" s="9">
         <f t="shared" si="3"/>
-        <v>1241.25</v>
+        <v>1338.375</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
-        <v>88794.9</v>
+        <v>89188.95</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C18CB4-F413-46FD-B87B-FE2B8C9BB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C41610-ABB1-4899-A1E5-63FFDF74839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,10 +193,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -261,8 +257,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +541,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -630,13 +624,13 @@
         <v>40.700000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*C3</f>
+        <f>C3*D3</f>
         <v>2849</v>
       </c>
-      <c r="F3" s="10">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="8">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="8">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -651,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>$E3 + $J3</f>
+        <f>E3+J3</f>
         <v>2849</v>
       </c>
     </row>
@@ -672,14 +666,14 @@
         <v>40.700000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2828.65</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -695,8 +689,8 @@
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="3">$E4 + $J4</f>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2828.65</v>
       </c>
     </row>
@@ -720,11 +714,11 @@
         <f t="shared" si="0"/>
         <v>2808.3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F37" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
@@ -733,14 +727,14 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I39" si="9">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <f t="shared" si="3"/>
         <v>2808.3</v>
       </c>
@@ -765,11 +759,11 @@
         <f t="shared" si="0"/>
         <v>2787.9500000000003</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
@@ -785,7 +779,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="3"/>
         <v>2787.9500000000003</v>
       </c>
@@ -810,11 +804,11 @@
         <f t="shared" si="0"/>
         <v>2767.6000000000004</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
@@ -830,7 +824,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <f t="shared" si="3"/>
         <v>2767.6000000000004</v>
       </c>
@@ -855,11 +849,11 @@
         <f t="shared" si="0"/>
         <v>2747.25</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
@@ -875,7 +869,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="3"/>
         <v>2747.25</v>
       </c>
@@ -900,11 +894,11 @@
         <f t="shared" si="0"/>
         <v>2726.9</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
@@ -920,7 +914,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <f t="shared" si="3"/>
         <v>2726.9</v>
       </c>
@@ -945,11 +939,11 @@
         <f t="shared" si="0"/>
         <v>2706.55</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
@@ -965,7 +959,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="3"/>
         <v>2706.55</v>
       </c>
@@ -990,11 +984,11 @@
         <f t="shared" si="0"/>
         <v>2686.2000000000003</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
@@ -1010,7 +1004,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <f t="shared" si="3"/>
         <v>2686.2000000000003</v>
       </c>
@@ -1035,11 +1029,11 @@
         <f t="shared" si="0"/>
         <v>2665.8500000000004</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
@@ -1055,7 +1049,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f t="shared" si="3"/>
         <v>2675.8500000000004</v>
       </c>
@@ -1080,11 +1074,11 @@
         <f t="shared" si="0"/>
         <v>2645.5</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
@@ -1100,7 +1094,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <f t="shared" si="3"/>
         <v>2665.5</v>
       </c>
@@ -1125,11 +1119,11 @@
         <f t="shared" si="0"/>
         <v>2625.15</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
@@ -1145,7 +1139,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="3"/>
         <v>2655.15</v>
       </c>
@@ -1170,11 +1164,11 @@
         <f t="shared" si="0"/>
         <v>2604.8000000000002</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
@@ -1190,7 +1184,7 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <f t="shared" si="3"/>
         <v>2644.8</v>
       </c>
@@ -1215,11 +1209,11 @@
         <f t="shared" si="0"/>
         <v>2584.4500000000003</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
@@ -1235,7 +1229,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="3"/>
         <v>2634.4500000000003</v>
       </c>
@@ -1260,11 +1254,11 @@
         <f t="shared" si="0"/>
         <v>2564.1000000000004</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
@@ -1280,7 +1274,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <f t="shared" si="3"/>
         <v>2624.1000000000004</v>
       </c>
@@ -1305,11 +1299,11 @@
         <f t="shared" si="0"/>
         <v>2543.75</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
@@ -1325,7 +1319,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="3"/>
         <v>2613.75</v>
       </c>
@@ -1350,11 +1344,11 @@
         <f t="shared" si="0"/>
         <v>2523.4</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
@@ -1370,7 +1364,7 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <f t="shared" si="3"/>
         <v>2603.4</v>
       </c>
@@ -1395,11 +1389,11 @@
         <f t="shared" si="0"/>
         <v>2503.0500000000002</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
@@ -1415,7 +1409,7 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="3"/>
         <v>2593.0500000000002</v>
       </c>
@@ -1440,11 +1434,11 @@
         <f t="shared" si="0"/>
         <v>2482.7000000000003</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
@@ -1460,7 +1454,7 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f t="shared" si="3"/>
         <v>2582.7000000000003</v>
       </c>
@@ -1485,11 +1479,11 @@
         <f t="shared" si="0"/>
         <v>2462.3500000000004</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
@@ -1505,7 +1499,7 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="3"/>
         <v>2572.3500000000004</v>
       </c>
@@ -1530,11 +1524,11 @@
         <f t="shared" si="0"/>
         <v>2442</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
@@ -1575,11 +1569,11 @@
         <f t="shared" si="0"/>
         <v>2421.65</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
@@ -1595,7 +1589,7 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="3"/>
         <v>2551.65</v>
       </c>
@@ -1620,11 +1614,11 @@
         <f t="shared" si="0"/>
         <v>2401.3000000000002</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
@@ -1640,7 +1634,7 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <f t="shared" si="3"/>
         <v>2541.3000000000002</v>
       </c>
@@ -1665,11 +1659,11 @@
         <f t="shared" si="0"/>
         <v>2380.9500000000003</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
@@ -1685,7 +1679,7 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="3"/>
         <v>2530.9500000000003</v>
       </c>
@@ -1710,11 +1704,11 @@
         <f t="shared" si="0"/>
         <v>2360.6000000000004</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
@@ -1730,7 +1724,7 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <f t="shared" si="3"/>
         <v>2520.6000000000004</v>
       </c>
@@ -1755,11 +1749,11 @@
         <f t="shared" si="0"/>
         <v>2340.25</v>
       </c>
-      <c r="F28" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
@@ -1775,7 +1769,7 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="3"/>
         <v>2510.25</v>
       </c>
@@ -1800,11 +1794,11 @@
         <f t="shared" si="0"/>
         <v>2319.9</v>
       </c>
-      <c r="F29" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F29" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
@@ -1820,7 +1814,7 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <f t="shared" si="3"/>
         <v>2499.9</v>
       </c>
@@ -1845,11 +1839,11 @@
         <f t="shared" si="0"/>
         <v>2299.5500000000002</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="F30" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
@@ -1865,7 +1859,7 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <f t="shared" si="3"/>
         <v>2489.5500000000002</v>
       </c>
@@ -1890,11 +1884,11 @@
         <f t="shared" si="0"/>
         <v>2279.2000000000003</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
@@ -1910,7 +1904,7 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <f t="shared" si="3"/>
         <v>2479.2000000000003</v>
       </c>
@@ -1935,11 +1929,11 @@
         <f t="shared" si="0"/>
         <v>2258.8500000000004</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
@@ -1955,7 +1949,7 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <f t="shared" si="3"/>
         <v>2468.8500000000004</v>
       </c>
@@ -1980,11 +1974,11 @@
         <f t="shared" si="0"/>
         <v>2238.5</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
@@ -2000,7 +1994,7 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <f t="shared" si="3"/>
         <v>2458.5</v>
       </c>
@@ -2025,11 +2019,11 @@
         <f t="shared" si="0"/>
         <v>2218.15</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
@@ -2045,7 +2039,7 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="3"/>
         <v>2448.15</v>
       </c>
@@ -2070,11 +2064,11 @@
         <f t="shared" si="0"/>
         <v>1098.9000000000001</v>
       </c>
-      <c r="F35" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="8">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
@@ -2090,7 +2084,7 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <f t="shared" si="3"/>
         <v>1338.9</v>
       </c>
@@ -2115,11 +2109,11 @@
         <f t="shared" si="0"/>
         <v>1088.7250000000001</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="F36" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="8">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
@@ -2135,7 +2129,7 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="6">
         <f t="shared" si="3"/>
         <v>1338.7250000000001</v>
       </c>
@@ -2160,11 +2154,11 @@
         <f t="shared" si="0"/>
         <v>1078.5500000000002</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="F37" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="8">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
@@ -2180,7 +2174,7 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="3"/>
         <v>1338.5500000000002</v>
       </c>
@@ -2205,11 +2199,11 @@
         <f t="shared" si="0"/>
         <v>1068.375</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
@@ -2225,7 +2219,7 @@
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="6">
         <f t="shared" si="3"/>
         <v>1338.375</v>
       </c>
@@ -2237,7 +2231,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C41610-ABB1-4899-A1E5-63FFDF74839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25E6E4F-A5D1-419E-83C5-4F3DAF6AC2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,6 +193,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -258,6 +261,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,7 +545,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -641,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
@@ -686,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
@@ -2242,9 +2246,9 @@
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
-        <f>SUM(K3:K38)</f>
-        <v>89188.95</v>
+      <c r="C40" s="9">
+        <f>INT(SUM(K3:K38))</f>
+        <v>89188</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25E6E4F-A5D1-419E-83C5-4F3DAF6AC2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C2E6B-784E-4E3F-8DA1-5E01AF15CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2247,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="9">
-        <f>INT(SUM(K3:K38))</f>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
         <v>89188</v>
       </c>
       <c r="D40" s="1"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C2E6B-784E-4E3F-8DA1-5E01AF15CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA02D04-5039-4359-9320-D1CBD098E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_37.xlsx
+++ b/LR3/table_1_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA02D04-5039-4359-9320-D1CBD098E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8AD0E5-1D5C-47E6-BD14-2A880EBCDB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -261,7 +258,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2246,8 +2242,8 @@
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="9">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+      <c r="C40" s="6">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>89188</v>
       </c>
       <c r="D40" s="1"/>
